--- a/dashboard_data/dashboard_data_v_1_3_METADATA.xlsx
+++ b/dashboard_data/dashboard_data_v_1_3_METADATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\met48\Desktop\V1.3_CHERR-mental_health_data_processing\dashboard_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE4B7F2-419E-4A47-ABCB-D7317676A228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1718C2C-3B97-4B26-BAB2-9E777674A914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24630" windowHeight="14175" xr2:uid="{39900F9C-C46F-4183-957F-FA1EA2F9375C}"/>
+    <workbookView xWindow="405" yWindow="255" windowWidth="24630" windowHeight="14175" xr2:uid="{39900F9C-C46F-4183-957F-FA1EA2F9375C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -248,6 +248,201 @@
   </si>
   <si>
     <t>CONTINUOUS</t>
+  </si>
+  <si>
+    <t>County Name</t>
+  </si>
+  <si>
+    <t>County's Federal Information Processing Standard (FIPS) Code -unique identifier for each county</t>
+  </si>
+  <si>
+    <t>Poverty percentage - all population</t>
+  </si>
+  <si>
+    <t>Poverty percentage - under 18 population</t>
+  </si>
+  <si>
+    <t>Percent of the Medicare/Medicaid population receiving treatment for alcohol abuse</t>
+  </si>
+  <si>
+    <t>Percent of the Medicare/Medicaid population receiving treatment for</t>
+  </si>
+  <si>
+    <t>Percent of the Medicare/Medicaid population receiving treatment for autism spectrum disorders</t>
+  </si>
+  <si>
+    <t>Percent of the Medicare/Medicaid population receiving treatment for drug abuse substance abuse</t>
+  </si>
+  <si>
+    <t>Percent of the Medicare/Medicaid population receiving treatment for schizophrenia other psychotic disorders</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Total county population</t>
+  </si>
+  <si>
+    <t>Total jail population per county</t>
+  </si>
+  <si>
+    <t>Total pretrial jail population per county</t>
+  </si>
+  <si>
+    <t>Percent unemployed</t>
+  </si>
+  <si>
+    <t>Total Licensed Chemical Dependency Counselors (LCDCs)</t>
+  </si>
+  <si>
+    <t>Ratio of Licensed Chemicall Dependency Counselors per 100k population</t>
+  </si>
+  <si>
+    <t>Ratio of Licensed Clinical Social Workers per 100k population</t>
+  </si>
+  <si>
+    <t>Total Licensed Clinical Social Workers (LCSWs)</t>
+  </si>
+  <si>
+    <t>Total Licensed Professional Counselors (LPCs)</t>
+  </si>
+  <si>
+    <t>Ratio of Licensed Professional Counselors per 100k population</t>
+  </si>
+  <si>
+    <t>Total Licensed Bachelor Social Workers (LBSWs)</t>
+  </si>
+  <si>
+    <t>Total Licensed Masters Social Workers (LMSWs)</t>
+  </si>
+  <si>
+    <t>Ratio of Licensed Bachelor Social Workers per 100k population</t>
+  </si>
+  <si>
+    <t>Ratio of Licensed Masters Social Workers per 100k population</t>
+  </si>
+  <si>
+    <t>Total Primary Care Physicians (PCPs)</t>
+  </si>
+  <si>
+    <t>Ratio of Primary Care Physicians per 100k population</t>
+  </si>
+  <si>
+    <t>If the county is part of a metropolitan/micropolitan statistical area (MSA), is it metropolitan or micropolitan?</t>
+  </si>
+  <si>
+    <t>If the county is part of a metropolitan/micropolitan statistical area (MSA), is it central or outlying?</t>
+  </si>
+  <si>
+    <t>If the county is part of a core-based statistical area (CBSA), this is the CBSA unique identifier</t>
+  </si>
+  <si>
+    <t>If the county is part of a core-based statistical area (CBSA), this is the CBSA name</t>
+  </si>
+  <si>
+    <t>If the county is part of a core-based statistical area (CBSA), is it metropolitan or micropolitan?</t>
+  </si>
+  <si>
+    <t>State name</t>
+  </si>
+  <si>
+    <t>Rural Urban Continuum Code (RUCC)</t>
+  </si>
+  <si>
+    <t>UIC</t>
+  </si>
+  <si>
+    <t>National Center for Health Statistics (NCHS) urbanization code</t>
+  </si>
+  <si>
+    <t>Opioid prescriptions per 100 population</t>
+  </si>
+  <si>
+    <t>Primarily alcohol serving establishments per 100k population</t>
+  </si>
+  <si>
+    <t>Percent of population that are veterans</t>
+  </si>
+  <si>
+    <t>Percent of population that lack health insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total psychiatrists </t>
+  </si>
+  <si>
+    <t>Ratio of total psychiatrists per 100k population</t>
+  </si>
+  <si>
+    <t>Total traffic fatalities</t>
+  </si>
+  <si>
+    <t>Total traffic fatalities involving a blood alcohol content of 0.08 of higher for any involved driver</t>
+  </si>
+  <si>
+    <t>Percentage of traffic fatalities involving a blood alcohol content of 0.08 of higher for any involved driver</t>
+  </si>
+  <si>
+    <t>Ratio of traffic fatalities per 100k population</t>
+  </si>
+  <si>
+    <t>Indicator variable showing if in "I-35 Innovation Corridor" or not</t>
+  </si>
+  <si>
+    <t>Percent data completeness - how many variables are missing for this county?</t>
+  </si>
+  <si>
+    <t>Urban Influence Code (UIC)</t>
+  </si>
+  <si>
+    <t>New Court Applications for Temporary Mental Health Services</t>
+  </si>
+  <si>
+    <t>Ratio of New Court Applications for Temporary Mental Health Services per 100k population</t>
+  </si>
+  <si>
+    <t>Hearings Held for Temporary Mental Health Services</t>
+  </si>
+  <si>
+    <t>Ratio of Hearings Held for Temporary Mental Health Services per 100k population</t>
+  </si>
+  <si>
+    <t>New Court Applications for Extended Mental Health Services</t>
+  </si>
+  <si>
+    <t>Hearings Held for Extended Mental Health Services</t>
+  </si>
+  <si>
+    <t>Ratio of New Court Applications for Extended Mental Health Services per 100k population</t>
+  </si>
+  <si>
+    <t>Ratio of Hearings Held for Extended Mental Health Services per 100k population</t>
+  </si>
+  <si>
+    <t>New Court Applications for Modifications to Prior Mental Health Orders</t>
+  </si>
+  <si>
+    <t>Hearings Held for Modifications to Prior Mental Health Orders</t>
+  </si>
+  <si>
+    <t>Ratio of New Court Applications for  Modifications to Prior Mental Health Orders per 100k population</t>
+  </si>
+  <si>
+    <t>Ratio of Hearings Held for  Modifications to Prior Mental Health Orders per 100k population</t>
+  </si>
+  <si>
+    <t>Hearings Held for Authorization of Medications</t>
+  </si>
+  <si>
+    <t>New Court Applications for Authorization of Medications</t>
+  </si>
+  <si>
+    <t>Ratio of New Court Applications for Authorization of Medications per 100k population</t>
+  </si>
+  <si>
+    <t>Ratio of Hearings Held for Authorization of Medications per 100k population</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -283,8 +478,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A3EC8F-C693-455A-9BCD-06F94A57406A}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,9 +808,11 @@
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -625,16 +825,25 @@
       <c r="D1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -644,8 +853,14 @@
       <c r="C3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -655,8 +870,14 @@
       <c r="C4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -666,8 +887,14 @@
       <c r="C5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -677,8 +904,14 @@
       <c r="C6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -688,8 +921,14 @@
       <c r="C7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -699,8 +938,14 @@
       <c r="C8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -710,8 +955,14 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -721,8 +972,14 @@
       <c r="C10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -732,8 +989,14 @@
       <c r="C11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -743,8 +1006,14 @@
       <c r="C12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -754,8 +1023,14 @@
       <c r="C13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -765,8 +1040,14 @@
       <c r="C14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -776,8 +1057,12 @@
       <c r="C15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -787,8 +1072,14 @@
       <c r="C16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -798,8 +1089,14 @@
       <c r="C17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -809,8 +1106,14 @@
       <c r="C18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -820,8 +1123,14 @@
       <c r="C19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -831,8 +1140,14 @@
       <c r="C20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -842,8 +1157,14 @@
       <c r="C21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -853,8 +1174,14 @@
       <c r="C22" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -864,8 +1191,14 @@
       <c r="C23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -875,8 +1208,14 @@
       <c r="C24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -886,8 +1225,14 @@
       <c r="C25" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -897,8 +1242,14 @@
       <c r="C26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -908,24 +1259,42 @@
       <c r="C27" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -935,24 +1304,42 @@
       <c r="C30" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -962,16 +1349,28 @@
       <c r="C33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -981,8 +1380,14 @@
       <c r="C35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -990,10 +1395,16 @@
         <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1003,8 +1414,14 @@
       <c r="C37" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1014,8 +1431,14 @@
       <c r="C38" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1025,8 +1448,14 @@
       <c r="C39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1036,8 +1465,14 @@
       <c r="C40" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1047,8 +1482,14 @@
       <c r="C41" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1058,8 +1499,14 @@
       <c r="C42" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1069,8 +1516,14 @@
       <c r="C43" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1080,8 +1533,14 @@
       <c r="C44" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1091,8 +1550,14 @@
       <c r="C45" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1102,8 +1567,14 @@
       <c r="C46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1113,8 +1584,14 @@
       <c r="C47" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1124,8 +1601,14 @@
       <c r="C48" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1135,8 +1618,14 @@
       <c r="C49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1146,8 +1635,14 @@
       <c r="C50" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1157,8 +1652,14 @@
       <c r="C51" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1168,8 +1669,14 @@
       <c r="C52" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1179,8 +1686,14 @@
       <c r="C53" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1190,8 +1703,14 @@
       <c r="C54" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1201,8 +1720,14 @@
       <c r="C55" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1212,8 +1737,14 @@
       <c r="C56" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1223,8 +1754,14 @@
       <c r="C57" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1234,8 +1771,14 @@
       <c r="C58" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1245,8 +1788,12 @@
       <c r="C59" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1256,8 +1803,12 @@
       <c r="C60" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1267,8 +1818,12 @@
       <c r="C61" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1278,16 +1833,26 @@
       <c r="C62" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1296,6 +1861,12 @@
       </c>
       <c r="C64" t="s">
         <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_data/dashboard_data_v_1_3_METADATA.xlsx
+++ b/dashboard_data/dashboard_data_v_1_3_METADATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\met48\Desktop\V1.3_CHERR-mental_health_data_processing\dashboard_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1718C2C-3B97-4B26-BAB2-9E777674A914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABA0E8A-A132-4324-849A-F5557E1C1743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="255" windowWidth="24630" windowHeight="14175" xr2:uid="{39900F9C-C46F-4183-957F-FA1EA2F9375C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39900F9C-C46F-4183-957F-FA1EA2F9375C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A3EC8F-C693-455A-9BCD-06F94A57406A}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1060,9 @@
       <c r="D15" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1791,7 +1793,9 @@
       <c r="D59" t="s">
         <v>112</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1">
+        <v>2019</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -1806,7 +1810,9 @@
       <c r="D60" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1">
+        <v>2019</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -1821,7 +1827,9 @@
       <c r="D61" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1">
+        <v>2019</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1836,7 +1844,9 @@
       <c r="D62" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1">
+        <v>2019</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
